--- a/Test Runs/alpha_1_beta_0_gamma_0.5_Run_11.xlsx
+++ b/Test Runs/alpha_1_beta_0_gamma_0.5_Run_11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Optmization_Formulation\EquitableRetirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804A2E64-E5A9-442F-95C8-317D2E49344C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D70EB17-AF9A-4BD8-9258-B5A15498CC8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="8796" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,63 +38,63 @@
   </si>
   <si>
     <t>[[ 0.  0.  0.]
- [ 0. 10.  0.]]</t>
+ [10.  0.  0.]]</t>
   </si>
   <si>
     <t>Cap Invest</t>
   </si>
   <si>
-    <t>[[[ 0.    0.   -0.  ]
-  [ 0.   13.33  0.  ]]]</t>
+    <t>[[[ 0.  0.  0.]
+  [20.  0.  0.]]]</t>
   </si>
   <si>
     <t>RE Cap</t>
   </si>
   <si>
-    <t>[[[ 0.    0.   -0.  ]
-  [ 0.   13.33 13.33]]]</t>
+    <t>[[[ 0.  0.  0.]
+  [20. 20. 20.]]]</t>
   </si>
   <si>
     <t>Re Gen</t>
   </si>
   <si>
-    <t>[[[ 0.  0. -0.]
-  [ 0. 10. 10.]]]</t>
+    <t>[[[ 0.  0.  0.]
+  [10. 10. 10.]]]</t>
   </si>
   <si>
     <t>Coal Gen</t>
   </si>
   <si>
     <t>[[10. 10. 10.]
- [10.  0.  0.]]</t>
+ [ 0.  0.  0.]]</t>
   </si>
   <si>
     <t>RE Invest</t>
   </si>
   <si>
     <t>[[[0. 0. 0.]
-  [0. 1. 0.]]]</t>
+  [1. 0. 0.]]]</t>
   </si>
   <si>
     <t>Coal Retire</t>
   </si>
   <si>
     <t>[[0. 0. 0.]
- [0. 1. 0.]]</t>
+ [1. 0. 0.]]</t>
   </si>
   <si>
     <t>RE online</t>
   </si>
   <si>
     <t>[[[0. 0. 0.]
-  [0. 1. 1.]]]</t>
+  [1. 1. 1.]]]</t>
   </si>
   <si>
     <t>Coal online</t>
   </si>
   <si>
     <t>[[1. 1. 1.]
- [1. 0. 0.]]</t>
+ [0. 0. 0.]]</t>
   </si>
   <si>
     <t>Variable</t>
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>206.67</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
